--- a/StoreManagement.Website/Resource/ExportedTemplate/ProfitByProduct.xlsx
+++ b/StoreManagement.Website/Resource/ExportedTemplate/ProfitByProduct.xlsx
@@ -407,7 +407,7 @@
   <dimension ref="A1:I1030"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:I1048576"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
